--- a/list_kansen.xlsx
+++ b/list_kansen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narawanozomi/Documents/4pro/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30795C7-ED79-DD48-AD03-502CCA64DF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1111AC-1B46-274E-9ED3-789EDA19884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>質問1: 感染対策の基本原則として、次のうちどれが挙げられるか。
 選択肢:
@@ -357,12 +357,19 @@
     <t xml:space="preserve">質問2: A) 入所者が他の施設から移ってきた場合は特に注意する
 </t>
   </si>
+  <si>
+    <t>問題</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -381,6 +388,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -403,9 +417,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -624,10 +639,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -637,354 +652,359 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>62</v>
       </c>
     </row>
